--- a/biology/Botanique/Bar_à_vin/Bar_à_vin.xlsx
+++ b/biology/Botanique/Bar_à_vin/Bar_à_vin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bar_%C3%A0_vin</t>
+          <t>Bar_à_vin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un bar à vin (wine bar en anglais, weinstube en Allemagne, winstub en Alsace, enoteca en espagnol, osteria en Italie) est une variante de bar-restaurant, spécialisé dans la dégustation de vins, pour les amateurs oenophiles. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bar_%C3%A0_vin</t>
+          <t>Bar_à_vin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Variante des pub, taverne, brasserie, café, bistro, bouchon lyonnais, bar à cocktails, caviste, Œnothèque, caveau de dégustation, les bars à vin sont généralement répandus dans les régions viticoles, spécialisés dans la dégustation de sélection de vin au verre, plutôt que d'apéritif, alcool, cocktail, ou bière...  
 	Quelques bars à vin du vignoble de Bourgogne Dijon, Beaune, Nuits-Saint-Georges, etc.
@@ -539,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bar_%C3%A0_vin</t>
+          <t>Bar_à_vin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,7 +571,9 @@
           <t>Événements œnologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Quelques régions viticoles organisent des événements festifs annuels promotionnels sur des quartiers ou villages entiers durant quelques jours :
 Bordeaux fête le vin (vignoble de Bordeaux)
